--- a/biology/Médecine/Prostatectomie/Prostatectomie.xlsx
+++ b/biology/Médecine/Prostatectomie/Prostatectomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prostatectomie totale ou prostatectomie radicale consiste en une ablation chirurgicale de la prostate, des vésicules séminales et des ampoules déférentielles. Elle est indiquée dans le traitement du cancer de la prostate localisé ou localement avancé. C'est une des alternatives thérapeutiques, au même titre que la radiothérapie externe ou la curiethérapie.
 </t>
@@ -511,7 +523,9 @@
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif est l'ablation du cancer prostatique. Il existe un risque de marges positives, c'est-à-dire de laisser une partie du cancer en place, exposant donc à un risque de récidive. Dans le cas de tumeur résiduelle, un traitement secondaire (ou adjuvant) est alors indiqué (radiothérapie).
 L'absence de traitement expose au risque de développement de la tumeur sur le plan local (dépassement capsulaire ou atteinte des vésicules séminales), régional (atteinte ganglionnaire) ou à distance sous forme de métastase. 
@@ -544,7 +558,9 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand le patient opte pour la chirurgie, l'opération, réalisée par un urologue, s'effectue sous anesthésie générale.
 Trois voies d'abord peuvent être proposées : 
@@ -582,11 +598,13 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les complications possibles de la prostatectomie comprennent : 
-l'incontinence urinaire : au mieux prévenue par une kinésithérapie de rééducation périnéosphinctérienne pré et postopératoire et un respect du sphincter urinaire pendant l'intervention. 5 % des patients ont une incontinence persistant au-delà d'un an dans les centres experts[1] ;
-l'impuissance ou la dysfonction érectile concerne 25 à 75 % des hommes après prostatectomie[2] ;
+l'incontinence urinaire : au mieux prévenue par une kinésithérapie de rééducation périnéosphinctérienne pré et postopératoire et un respect du sphincter urinaire pendant l'intervention. 5 % des patients ont une incontinence persistant au-delà d'un an dans les centres experts ;
+l'impuissance ou la dysfonction érectile concerne 25 à 75 % des hommes après prostatectomie ;
 hémorragies, infections, comme dans les autres interventions chirurgicales. Le taux de ces complications peut être réduit en utilisant la technique de récupération rapide après chirurgie ;
 plaie du rectum : cette complication est exceptionnelle, mais expose à la fistule recto-uréthrale. La conséquence est l'émission d'urines par l'anus. Cette complication nécessite une réparation chirurgicale dans la plupart des cas et la création d'un anus artificiel temporaire (colostomie).</t>
         </is>
